--- a/target/classes/gooseTest.xlsx
+++ b/target/classes/gooseTest.xlsx
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2242" uniqueCount="228">
   <si>
     <t>Jan</t>
   </si>
